--- a/meta/11-6-1-2.xlsx
+++ b/meta/11-6-1-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\413\Метаданные для показателей ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DADD8A6-9B9F-4BBD-AE81-C3C71B7670C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.6.1.1a" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -99,9 +100,6 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Национальная платформа отчетности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.6 К 2030 году уменьшить негативное экологическое воздействие городов в пересчете на душу населения, в том числе посредством уделения особого внимания качеству воздуха и удалению городских и других отходов </t>
   </si>
   <si>
@@ -111,7 +109,52 @@
     <t>По территории (республика, область)</t>
   </si>
   <si>
-    <t xml:space="preserve">Отражает способы, используемые населением, при избавлении от мусора. Данный индикатор отражает способы избавления от мусора по следующим категориям:                                                                                                               - Сброс в мусоропровод;
+    <t>Показатель способов избавления от производимых отходов свидетельствует об экологической нагрузке на атмосферные, водные и земельные ресурсы. При этом, способы избавления от отходов напрямую зависят от доступа к услугам, предоставляемым коммунальным хозяйством. Сбалансированная программа управления отходами должна стремиться свести к минимуму количество отходов, а также способствовать надлежащему удалению и переработке отходов.</t>
+  </si>
+  <si>
+    <t>11.6.1.2 Избавление от твердых бытовых отходов домашними хозяйствами по видам (мусоропровод; сбор грузовиком, контейнером; сброс в мусорные кучи; сжигание; закапывание)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gov.kg </t>
+  </si>
+  <si>
+    <t>11.6.1.2</t>
+  </si>
+  <si>
+    <t>Калымбетова Ы.И.</t>
+  </si>
+  <si>
+    <t>0(312) 32 46 55</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление статистики домашних хозяств)</t>
+  </si>
+  <si>
+    <t>ykalymbetova@stat.kg</t>
+  </si>
+  <si>
+    <t>Интегрированное обследование бюджетов домашних хозяйств и рабочей силы, Нацстатком КР</t>
+  </si>
+  <si>
+    <t>Рассчитывается отношением числа домохозяйств, применяющих различные способы избавления от бытового мусора к общему количеству домохозяйств.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сбор данных осуществляется путем опроса дома в рамках выборочного обследования домашних хозяйств, проводимого во всех регионах республики на ежеквартальной основе.
+Объектом статистического наблюдения выступают состав и жилищные условия домашних хозяйств. Единицей наблюдения являются домашние хозяйства.
+Проведение выборочного интегрированного обследования бюджетов домашних хозяйств и рабочей силы регламентировано постановлением Правительства Кыргызской Республики «О статистике выборочных обследований домашних хозяйств» от 17 января 2004 года №25 и Программой статистических работ. Мониторинг индикатора осуществляется с годовой периодичностью.
+</t>
+  </si>
+  <si>
+    <t>Гарантией качества показателя является использование репрезентативной выборки в ИОДХ, соблюдение сроков и условий проведения обследования, а также многоступенчатый контроль, включающий проверку анкет на полноту и логическую последовательность.</t>
+  </si>
+  <si>
+    <t>1) https://stat.gov.kg/ru/publications/uroven-zhizni-naseleniya-kyrgyzskoj-respubliki/                                                                                                          2) https://stat.gov.kg/ru/publications/sbornik-okruzhayushaya-sreda-v-kyrgyzskoj-respublike/</t>
+  </si>
+  <si>
+    <t>1) Ежегодный статистический сборник Окружающая среда в Кыргызской Республике;                                                                                                         2) Ежегодный сборник Уровень жизни населеня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данный индикатор отражает способы, используемые населением, при избавлении от мусора. Данный индикатор отражает способы избавления от мусора по следующим категориям:                                                                                                         - Сброс в мусоропровод;
 - Сбор грузовиком, контейнером;
 - Сброс в мусорные кучи;
 - Сжигание;
@@ -119,46 +162,20 @@
 </t>
   </si>
   <si>
-    <t>Показатель способов избавления от производимых отходов свидетельствует об экологической нагрузке на атмосферные, водные и земельные ресурсы. При этом, способы избавления от отходов напрямую зависят от доступа к услугам, предоставляемым коммунальным хозяйством. Сбалансированная программа управления отходами должна стремиться свести к минимуму количество отходов, а также способствовать надлежащему удалению и переработке отходов.</t>
-  </si>
-  <si>
-    <t>Сбор данных осуществляется Национальным статистическим комитетом КР.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сбор данных осуществляется Национальным статистическим комитетом в рамках выборочного обследования домашних хозяйств, проводимого во всех регионах республики на ежеквартальной основе.Рассчитывается отношением числа домохозяйств, применяющих различные способы избавления от бытового мусора к общему количеству домохозяйств.
-Объектом статистического наблюдения выступают состав и жилищные условия домашних хозяйств. Единицей наблюдения являются домашние хозяйства.
-Проведение выборочного интегрированного обследования бюджетов домашних хозяйств и рабочей силы регламентировано постановлением Правительства Кыргызской Республики «О статистике выборочных обследований домашних хозяйств» от 17 января 2004 года №25 и Программой статистических работ. Мониторинг индикатора осуществляется с годовой периодичностью.
+    <t xml:space="preserve">Способы, которыми домохозяйства избавляются от своего мусора включает как организованные системы вывоза, так и неформальные/небезопасные методы.
+Виды избавления:
+Мусоропровод – централизованная система сброса мусора внутри здания (обычно в многоквартирных домах).
+Сбор грузовиком/контейнером – регулярный вывоз отходов коммунальными или частными службами.
+Сброс в мусорные кучи – выбрасывание отходов в несанкционированные места (на пустырях, обочинах и т.п.).
+Сжигание – самостоятельное сжигание отходов, часто на открытом воздухе.
+Закапывание – самостоятельное захоронение отходов в почве, обычно рядом с домом.
 </t>
-  </si>
-  <si>
-    <t>Ежегодный статистический сборник «Окружающая среда в Кыргызской Республике)</t>
-  </si>
-  <si>
-    <t>11.6.1.2 Избавление от твердых бытовых отходов домашними хозяйствами по видам (мусоропровод; сбор грузовиком, контейнером; сброс в мусорные кучи; сжигание; закапывание)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.gov.kg </t>
-  </si>
-  <si>
-    <t>11.6.1.2</t>
-  </si>
-  <si>
-    <t>Калымбетова Ы.И.</t>
-  </si>
-  <si>
-    <t>yryskan.kalymbetova@gmail.com</t>
-  </si>
-  <si>
-    <t>0(312) 32 46 55</t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР (Управление статистики домашних хозяств)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,9 +213,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -218,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,19 +313,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -321,13 +323,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -352,50 +393,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,14 +644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -643,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -651,15 +682,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -668,44 +699,44 @@
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>36</v>
+      <c r="B10" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -714,26 +745,28 @@
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="273.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,20 +775,20 @@
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="195" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
+      <c r="B17" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -764,67 +797,70 @@
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-    </row>
-    <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B24" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>26</v>
+      <c r="B26" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1799,11 +1835,10 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B26" r:id="rId3" display="http://www.stat.kg/ru/publications/sbornik-okruzhayushaya-sreda-v-kyrgyzskoj-respublike/"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>